--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2217961.465282604</v>
+        <v>2322141.099733675</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9493136.700756837</v>
+        <v>9493136.700756839</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.01505925776522</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.4305823736183</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.23490948285925</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>279.6747009128604</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>267.1758329068624</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>150.9601371840616</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>62.14501617230248</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>259.0206322914228</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3264444682585</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>274.7944255145766</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>122.861624892501</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>72.35603774236925</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>13.37642554686322</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>177.0850116794029</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.76284745948055</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>45.31583743120954</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>115.6949510903003</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>68.98225678327387</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671011182</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671262</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>253.6024764086818</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.9154861872836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>32.4418101585733</v>
+        <v>134.9967644582763</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>45.17596778975034</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.4844875583155</v>
+        <v>170.722427606551</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701367</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.6789846282036</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>239.7247859410114</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417131</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>113.8415422301048</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>52.91369288257746</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>209.9229247978765</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>159.9541141389</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>65.44930784064583</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1879.82957821044</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1510.867061270028</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1152.601362663278</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450751</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189672</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.13895121386</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396066</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4492,19 +4494,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4513,25 +4515,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1554.964392954241</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1300.279904748355</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1010.862734711394</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>782.8731838133765</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.0806046698464</v>
+        <v>362.8175152271513</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820603</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1887.813801820603</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066529</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796415</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796415</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820603</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.9942835760969</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>531.2215399677106</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.424878447884</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>996.4353275498668</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.6427484063366</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796238</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392121</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8079389392121</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>552.8079389392121</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.124661698547</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450751</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180637</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919557</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>435.8535386027978</v>
+        <v>623.1279902937557</v>
       </c>
       <c r="C10" t="n">
-        <v>435.8535386027978</v>
+        <v>454.1918073658488</v>
       </c>
       <c r="D10" t="n">
-        <v>435.8535386027978</v>
+        <v>454.1918073658488</v>
       </c>
       <c r="E10" t="n">
-        <v>287.9404450204047</v>
+        <v>454.1918073658488</v>
       </c>
       <c r="F10" t="n">
-        <v>287.9404450204047</v>
+        <v>307.3018598679384</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>139.5990232426574</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>139.5990232426574</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310549</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330375</v>
+        <v>843.9205694372858</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5020034330375</v>
+        <v>623.1279902937557</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816187</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>793.6995478537118</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>643.582908441376</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,31 +5533,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>996.5276398439711</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C19" t="n">
-        <v>827.5914569160642</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>677.4748175037284</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487563</v>
+        <v>2263.053792872764</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510504</v>
+        <v>2043.452327895704</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>1754.377101239902</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854702</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817741</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.968683817741</v>
+        <v>982.2858920990373</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.176104674211</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246296</v>
+        <v>803.8641191832224</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967227</v>
+        <v>634.9279362553156</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832673</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487578</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510519</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.979202260896</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>1206.305163156992</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>985.5125840134622</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.7012443408906</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673938</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018136</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812249</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3604.262151227722</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3376.272600329705</v>
       </c>
       <c r="Y25" t="n">
-        <v>813.3497091711304</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3195.647281583948</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C28" t="n">
-        <v>3026.711098656041</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243706</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4658.063647187913</v>
+        <v>2310.602715440587</v>
       </c>
       <c r="T28" t="n">
-        <v>4438.462182210855</v>
+        <v>2091.001250463528</v>
       </c>
       <c r="U28" t="n">
-        <v>4149.386955555053</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V28" t="n">
-        <v>3894.702467349166</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W28" t="n">
-        <v>3605.285297312205</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X28" t="n">
-        <v>3377.295746414188</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y28" t="n">
-        <v>3377.295746414188</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,16 +6782,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
         <v>2129.438138565707</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532264</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.557557724331</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.873069518444</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.455899481483</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X34" t="n">
-        <v>963.4663485834661</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.4663485834661</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107584</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434712</v>
+        <v>560.782578970608</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155643</v>
+        <v>391.846396042701</v>
       </c>
       <c r="D37" t="n">
-        <v>550.9217088032285</v>
+        <v>241.7297566303652</v>
       </c>
       <c r="E37" t="n">
-        <v>403.0086152208354</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F37" t="n">
-        <v>256.118667722925</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>963.2236229443781</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>742.4310438008479</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>962.6357307816187</v>
+        <v>931.4710609784065</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>762.5348780504996</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>1152.263640121937</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.284195611858</v>
+        <v>931.4710609784065</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913858</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>738.7889117913858</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510504</v>
+        <v>2052.064890853473</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854702</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648815</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W43" t="n">
-        <v>1272.131553387299</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7640,58 +7642,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>2453.684166529967</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032285</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>550.9217088032285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>126.9182872993607</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.3204386478854</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>134.6711151870886</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>101.1181252153596</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>65.3313349113443</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>79.63321623493849</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.5874149221179437</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>32.92052192790914</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.6691671648112</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>148.5844758430713</v>
+        <v>46.0295215433683</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.69998683092865</v>
+        <v>115.4620467826931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>4.845153664065236</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823287</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>53.40527886852303</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922741</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>233.6093054540137</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>7.48252552941176</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>126.568884197691</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>79.97174018228542</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.647095216</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952155</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817515.6470952155</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26316,25 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982123</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675041</v>
@@ -26341,19 +26343,19 @@
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8.849564759155579e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314493</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314493</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314492</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179369</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179355</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26448,13 +26450,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179334</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179334</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26506,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911251.4259139176</v>
+        <v>-911251.4259139181</v>
       </c>
       <c r="C6" t="n">
-        <v>417493.3198136741</v>
+        <v>417493.3198136739</v>
       </c>
       <c r="D6" t="n">
-        <v>417493.3198136747</v>
+        <v>417493.3198136742</v>
       </c>
       <c r="E6" t="n">
-        <v>167657.9258844479</v>
+        <v>167657.9258844486</v>
       </c>
       <c r="F6" t="n">
         <v>493070.3876918039</v>
       </c>
       <c r="G6" t="n">
-        <v>493070.387691804</v>
+        <v>493070.3876918036</v>
       </c>
       <c r="H6" t="n">
-        <v>493070.3876918037</v>
+        <v>493070.3876918038</v>
       </c>
       <c r="I6" t="n">
-        <v>493070.3876918037</v>
+        <v>493070.3876918033</v>
       </c>
       <c r="J6" t="n">
-        <v>275539.1852945262</v>
+        <v>275539.1852945261</v>
       </c>
       <c r="K6" t="n">
         <v>493070.3876918036</v>
       </c>
       <c r="L6" t="n">
-        <v>493070.3876918035</v>
+        <v>493070.3876918036</v>
       </c>
       <c r="M6" t="n">
-        <v>408015.3597562915</v>
+        <v>408015.359756292</v>
       </c>
       <c r="N6" t="n">
-        <v>493070.387691804</v>
+        <v>493070.3876918037</v>
       </c>
       <c r="O6" t="n">
         <v>493070.3876918035</v>
       </c>
       <c r="P6" t="n">
-        <v>493070.3876918039</v>
+        <v>493070.3876918043</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973564</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022922</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>312.7187824057154</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.4997876986434</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.18613854007199</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.537137292752504</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50720871382055</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>235.277801471992</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>105.1018049263253</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.50236604516823</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>272.5496012734529</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>52.95783295555833</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>43.16418336652725</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.99638266746884</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28801,19 +28803,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28962,22 +28964,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,10 +29006,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.869108365783305e-12</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29016,16 +29018,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.106195594894447e-13</v>
       </c>
     </row>
     <row r="26">
@@ -30043,16 +30045,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-5.370339484000825e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-1.106195594894446e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30229,10 +30231,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.563253910168162e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.648459146963432e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30384,7 +30386,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -30393,10 +30395,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-5.28667533760347e-12</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -30441,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.106195594894447e-13</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M12" t="n">
-        <v>726.7533607666132</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>698.850866879865</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>161.7871425275307</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32803,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>520.3372160854087</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33199,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33436,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33658,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817608</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>531.8166820790237</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>502.5232631188761</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>742.9354859824756</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,19 +34447,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>423.9151577118742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M12" t="n">
-        <v>584.6193268445949</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.7168329578467</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36057,7 +36059,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36139,10 +36141,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>23.94570355317167</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36451,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>377.7409716409642</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>330.3773834724256</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37306,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367803</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.76383318075152</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>393.2623022991496</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>368.5488557045459</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991423</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>285.360777932</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2318128.489719681</v>
+        <v>2319889.020022467</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.78083674902206</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>63.72703424640825</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>63.10873435712805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>266.372361315646</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>271.2903285220069</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>81.91342772400982</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>240.3867992744226</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506855</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>8.559242828906072</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>11.7907648167922</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>141.9273329298512</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>85.08368458989466</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>269.2885714699233</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179874</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>177.0850116794029</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338611</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>106.3434154283454</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454149</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161238</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>22.61263105777525</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4321,19 +4321,19 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064753</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080133</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.7005868594143</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1862.923806425454</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1573.820939551098</v>
       </c>
       <c r="V4" t="n">
-        <v>1863.548351768162</v>
+        <v>1319.136451345211</v>
       </c>
       <c r="W4" t="n">
-        <v>1574.131181731201</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X4" t="n">
-        <v>1346.141630833184</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y4" t="n">
-        <v>1125.349051689654</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4558,61 +4558,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136269</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520491</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520491</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520491</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520491</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215814</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846022</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242374</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621305</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>797.4834000772721</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>797.4834000772721</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>797.4834000772721</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>762.3098687443653</v>
       </c>
       <c r="F8" t="n">
-        <v>77.5441625467829</v>
+        <v>351.3239639547577</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1918.648848261315</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1726.962964088141</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.196348657667</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.196348657667</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.51186045178</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.51186045178</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1028.490320362745</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>859.5541374348384</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>709.4374980225026</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>561.5244044401095</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>414.6344569421991</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>247.4383576570791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>105.7265264992771</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X13" t="n">
-        <v>1430.931364336515</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>1210.138785192985</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,52 +5275,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5494,46 +5494,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1772.498126207679</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.406917066814</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>779.6143379232836</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5901,10 +5901,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,7 +6022,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,52 +6223,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.5813165460164</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>385.6451336181095</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.2297813762561</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6840,22 +6840,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6961,7 +6961,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>808.8888553856898</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>639.9526724577829</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>489.8360330454472</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>489.8360330454472</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>342.9460855475368</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235168</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.50678425811</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602307</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.74706939642</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.32989935946</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.32989935946</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159295</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D40" t="n">
         <v>402.7245934908938</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="41">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.255978819893812e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>69.47507150177333</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>144.5956654067398</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>80.44045370237419</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.89590291932086</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4693302300325</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>40.3204386478854</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>59.18072286392348</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>180.5336875992865</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.4693302300322</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>831410.8172694929</v>
+        <v>831410.817269493</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>831410.8172694929</v>
+        <v>831410.817269493</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675048</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231447</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231446</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26435,7 +26435,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26447,7 +26447,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179344</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911251.4259139192</v>
+        <v>-911251.4259139183</v>
       </c>
       <c r="C6" t="n">
-        <v>417493.319813674</v>
+        <v>417493.3198136741</v>
       </c>
       <c r="D6" t="n">
-        <v>417493.3198136751</v>
+        <v>417493.3198136741</v>
       </c>
       <c r="E6" t="n">
-        <v>167310.5466300917</v>
+        <v>167623.1879590124</v>
       </c>
       <c r="F6" t="n">
-        <v>492723.0084374464</v>
+        <v>493035.6497663682</v>
       </c>
       <c r="G6" t="n">
-        <v>492723.0084374467</v>
+        <v>493035.6497663684</v>
       </c>
       <c r="H6" t="n">
-        <v>492723.0084374466</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="I6" t="n">
-        <v>492723.0084374471</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="J6" t="n">
-        <v>275191.8060401689</v>
+        <v>275504.4473690903</v>
       </c>
       <c r="K6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="L6" t="n">
-        <v>492723.0084374466</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="M6" t="n">
-        <v>407667.9805019351</v>
+        <v>407980.6218308561</v>
       </c>
       <c r="N6" t="n">
-        <v>492723.0084374467</v>
+        <v>493035.6497663677</v>
       </c>
       <c r="O6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663676</v>
       </c>
       <c r="P6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.649766368</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.9530049144585</v>
+        <v>303.9530049144594</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>155.8219150297609</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>189.0289089667</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>115.5580087566158</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>98.44077215646217</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>204.6095706125812</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>170.5349263790308</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194494</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>80.37290984114125</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-1.676880856393836e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043726</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -36369,7 +36369,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409638</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191315</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
